--- a/HTML5/SITES/SITES-SIMULATIONS-STATUS.xlsx
+++ b/HTML5/SITES/SITES-SIMULATIONS-STATUS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githtmls\trunk\HTML5\SITES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>SNO</t>
   </si>
@@ -91,12 +96,24 @@
   </si>
   <si>
     <t>trigonometry-index</t>
+  </si>
+  <si>
+    <t>Not updating</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>no html</t>
+  </si>
+  <si>
+    <t>blank page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,6 +170,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -200,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +467,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +529,9 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -529,6 +552,9 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -549,6 +575,9 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -572,6 +601,9 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -592,6 +624,9 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -612,6 +647,9 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -635,6 +673,9 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -658,6 +699,9 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -678,6 +722,9 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -698,6 +745,9 @@
       <c r="G14" t="s">
         <v>13</v>
       </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -717,6 +767,9 @@
       </c>
       <c r="G15" t="s">
         <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5/SITES/SITES-SIMULATIONS-STATUS.xlsx
+++ b/HTML5/SITES/SITES-SIMULATIONS-STATUS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>SNO</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>blank page</t>
+  </si>
+  <si>
+    <t>https://www.edumedia-sciences.com/en/media/308-sundial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,14 +165,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,9 +786,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
